--- a/spliced/falling/2023-03-21_15-34-04/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-04/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>-0.3077233731746673</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.4122457504272466</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.09671294689178367</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6507992744445799</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.6001750826835632</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.166460782289505</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.2874121069908142</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-21_15-34-04/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-04/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.4068026542663569</v>
+        <v>-0.772541880607605</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1559689044952389</v>
+        <v>-0.2669219076633453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6923939287662497</v>
+        <v>0.974086582660675</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04505131021142</v>
+        <v>-0.1041525229811668</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0474947728216648</v>
+        <v>0.2035708427429199</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0012217304902151</v>
+        <v>0.0946841165423393</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.133467555046082</v>
+        <v>-0.4068026542663569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02078273892402592</v>
+        <v>-0.1559689044952389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06124181300401743</v>
+        <v>0.6923939287662497</v>
       </c>
       <c r="F3" t="n">
-        <v>0.027030786499381</v>
+        <v>-0.04505131021142</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1934915632009506</v>
+        <v>0.0474947728216648</v>
       </c>
       <c r="H3" t="n">
-        <v>0.019089538604021</v>
+        <v>-0.0012217304902151</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.8061990737915055</v>
+        <v>-0.133467555046082</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.673800706863404</v>
+        <v>0.02078273892402592</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9037782549858108</v>
+        <v>0.06124181300401743</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0968221426010131</v>
+        <v>0.027030786499381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1188132911920547</v>
+        <v>0.1934915632009506</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.111024759709835</v>
+        <v>0.019089538604021</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.158628642559052</v>
+        <v>-0.8061990737915055</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.300643742084504</v>
+        <v>-0.673800706863404</v>
       </c>
       <c r="E5" t="n">
-        <v>2.320873700082303</v>
+        <v>0.9037782549858108</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0375682115554809</v>
+        <v>0.0968221426010131</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2264782935380935</v>
+        <v>0.1188132911920547</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0942259654402732</v>
+        <v>-0.111024759709835</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5.611039400100712</v>
+        <v>-2.158628642559052</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.067752599716186</v>
+        <v>-1.300643742084504</v>
       </c>
       <c r="E6" t="n">
-        <v>3.571036458015443</v>
+        <v>2.320873700082303</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8402451276779175</v>
+        <v>-0.0375682115554809</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.9257662892341614</v>
+        <v>-0.2264782935380935</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5154175758361816</v>
+        <v>0.0942259654402732</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.29619103670124</v>
+        <v>-5.611039400100712</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.212279349565506</v>
+        <v>-1.067752599716186</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.306954741477978</v>
+        <v>3.571036458015443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4760167300701141</v>
+        <v>-0.8402451276779175</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7556403279304504</v>
+        <v>-0.9257662892341614</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2362521290779113</v>
+        <v>0.5154175758361816</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16.49048757553099</v>
+        <v>10.29619103670124</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.535040378570561</v>
+        <v>-1.212279349565506</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.817432403564455</v>
+        <v>-1.306954741477978</v>
       </c>
       <c r="F8" t="n">
-        <v>3.270725250244141</v>
+        <v>0.4760167300701141</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.487748622894287</v>
+        <v>0.7556403279304504</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.372128963470459</v>
+        <v>-0.2362521290779113</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.932503581047048</v>
+        <v>16.49048757553099</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.061056911945345</v>
+        <v>-2.535040378570561</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.269190549850461</v>
+        <v>-4.817432403564455</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6478226184844971</v>
+        <v>3.270725250244141</v>
       </c>
       <c r="G9" t="n">
-        <v>2.27852725982666</v>
+        <v>-2.487748622894287</v>
       </c>
       <c r="H9" t="n">
-        <v>1.823280096054077</v>
+        <v>-3.372128963470459</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.17936980724334</v>
+        <v>5.932503581047048</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.029928088188166</v>
+        <v>-5.061056911945345</v>
       </c>
       <c r="E10" t="n">
-        <v>1.175602436065679</v>
+        <v>-3.269190549850461</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0369573459029197</v>
+        <v>-0.6478226184844971</v>
       </c>
       <c r="G10" t="n">
-        <v>2.615877628326416</v>
+        <v>2.27852725982666</v>
       </c>
       <c r="H10" t="n">
-        <v>1.630857467651367</v>
+        <v>1.823280096054077</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.0117866396904</v>
+        <v>-3.17936980724334</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.052042245864868</v>
+        <v>-6.029928088188166</v>
       </c>
       <c r="E11" t="n">
-        <v>4.367893397808076</v>
+        <v>1.175602436065679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5739079117774963</v>
+        <v>-0.0369573459029197</v>
       </c>
       <c r="G11" t="n">
-        <v>1.733788251876831</v>
+        <v>2.615877628326416</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7820602059364319</v>
+        <v>1.630857467651367</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2356891632080053</v>
+        <v>2.0117866396904</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.266632080078124</v>
+        <v>-2.052042245864868</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6566014289855999</v>
+        <v>4.367893397808076</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8460483551025391</v>
+        <v>0.5739079117774963</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2235766798257827</v>
+        <v>1.733788251876831</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6638578176498413</v>
+        <v>0.7820602059364319</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.9150051474571261</v>
+        <v>0.2356891632080053</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8746488094329823</v>
+        <v>-1.266632080078124</v>
       </c>
       <c r="E13" t="n">
-        <v>2.565791487693792</v>
+        <v>0.6566014289855999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5737552046775818</v>
+        <v>0.8460483551025391</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3006984293460846</v>
+        <v>0.2235766798257827</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3161227703094482</v>
+        <v>0.6638578176498413</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.240249633789063</v>
+        <v>-0.9150051474571261</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.217294335365296</v>
+        <v>-0.8746488094329823</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8477112054824805</v>
+        <v>2.565791487693792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1904372423887252</v>
+        <v>0.5737552046775818</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2438879460096359</v>
+        <v>-0.3006984293460846</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0226020142436027</v>
+        <v>-0.3161227703094482</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.5955665111541733</v>
+        <v>-1.240249633789063</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5654221177101116</v>
+        <v>-1.217294335365296</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.02790260314941459</v>
+        <v>0.8477112054824805</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0054977871477603</v>
+        <v>0.1904372423887252</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0597120784223079</v>
+        <v>-0.2438879460096359</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.3837760984897613</v>
+        <v>0.0226020142436027</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5104980468750013</v>
+        <v>-0.5955665111541733</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1675477027893068</v>
+        <v>-0.5654221177101116</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5091485977172858</v>
+        <v>-0.02790260314941459</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.072998397052288</v>
+        <v>-0.0054977871477603</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4034765064716339</v>
+        <v>0.0597120784223079</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0620028227567672</v>
+        <v>-0.3837760984897613</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.036981225013732</v>
+        <v>0.5104980468750013</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.10504525899887</v>
+        <v>-0.1675477027893068</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4656781554222081</v>
+        <v>-0.5091485977172858</v>
       </c>
       <c r="F17" t="n">
-        <v>0.032223142683506</v>
+        <v>-0.072998397052288</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4314235746860504</v>
+        <v>0.4034765064716339</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2561052441596985</v>
+        <v>-0.0620028227567672</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4670617580413783</v>
+        <v>1.036981225013732</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04750466346740631</v>
+        <v>-0.10504525899887</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1018033027648915</v>
+        <v>-0.4656781554222081</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0665843114256858</v>
+        <v>0.032223142683506</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4109596014022827</v>
+        <v>0.4314235746860504</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2779437005519867</v>
+        <v>0.2561052441596985</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.5187106132507345</v>
+        <v>0.4670617580413783</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1585329174995418</v>
+        <v>0.04750466346740631</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.09741693735122439</v>
+        <v>0.1018033027648915</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3990477323532104</v>
+        <v>-0.0665843114256858</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5852088928222656</v>
+        <v>-0.4109596014022827</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0757472887635231</v>
+        <v>0.2779437005519867</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.071794033050533</v>
+        <v>-0.5187106132507345</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.06254482269287452</v>
+        <v>-0.1585329174995418</v>
       </c>
       <c r="E20" t="n">
-        <v>0.503868103027345</v>
+        <v>-0.09741693735122439</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.342084527015686</v>
+        <v>-0.3990477323532104</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1157589629292488</v>
+        <v>-0.5852088928222656</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.209526777267456</v>
+        <v>-0.0757472887635231</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.071794033050533</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.06254482269287452</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.503868103027345</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.342084527015686</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1157589629292488</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.209526777267456</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>-0.1770309805870052</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-0.8330835700035099</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>0.7879237532615664</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>-0.8017606139183044</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>-0.1394299864768982</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>-0.3077233731746673</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.4122457504272466</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.09671294689178367</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6507992744445799</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.6001750826835632</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.166460782289505</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.2874121069908142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.01871716976165649</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1319747567176817</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.1633049249649066</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1484402567148208</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0137444678694009</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1325577646493911</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1193938255310074</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.05726575851440492</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.4602591991424554</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0577267669141292</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.1240056455135345</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0187841057777404</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.2904316186904892</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.1059370636939995</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.1864967942237846</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0021380283869802</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0429132841527462</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1725694388151168</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0775488615036011</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.0401190519332886</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.02606511116027833</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0100792767480015</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0042760567739605</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0404698215425014</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.02678942680358923</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.3534234166145316</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.111013770103454</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0004581489483825</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.0215329993516206</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0074830991216003</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1420207023620607</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.1315011978149412</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.04810285568237234</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0334448739886283</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.1394299864768982</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0435241498053073</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.1982678174972537</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.0857929587364194</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.1000801920890816</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.040775254368782</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.2396118938922882</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.1838704347610473</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.08944976329803658</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1226030588150037</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.6240378618240389</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.057115901261568</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.2092213481664657</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0080939643085002</v>
       </c>
     </row>
   </sheetData>
